--- a/테스트케이스_예시.xlsx
+++ b/테스트케이스_예시.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>NO</t>
   </si>
@@ -108,10 +108,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -470,12 +466,2346 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>환경 설정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>리사이징</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>바 생성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 디자인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">변경
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. npm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실행</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. git </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">바뀜
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력됨</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> firebase url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정상적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">접속됨
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장했던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력됨</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조절</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. About Me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크기에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여짐</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Portfolio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배열이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크기에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달라짐</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배너의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크기가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크기에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞춰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여짐</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네이게이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블로그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">클릭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네비게이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Post </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">클릭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네비게이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Portfolio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. Post </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. Portfolio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">클릭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이드바의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Home </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">클릭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이드바의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Post </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">클릭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이드바의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Portfolio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이드바가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">닫힘
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. Post </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4. Portfolio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. About Me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">확인
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">확인
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. Favicon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. About Me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바뀌어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">있음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바뀌어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">있음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3. Favicon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바뀌어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있음</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구조가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되어있나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구조가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바뀌어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있음</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Firebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배포한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계한대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확면이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여짐</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -535,6 +2865,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -556,7 +2893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -782,11 +3119,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -803,11 +3177,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -857,6 +3226,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1126,16 +3521,16 @@
     </row>
     <row r="2" spans="1:27" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1157,7 +3552,7 @@
     </row>
     <row r="3" spans="1:27" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1178,7 +3573,7 @@
       <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1"/>
@@ -1200,24 +3595,28 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>9</v>
+      <c r="C4" s="27" t="s">
+        <v>20</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
+      <c r="E4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1230,24 +3629,26 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>9</v>
+      <c r="C5" s="26"/>
+      <c r="D5" s="19" t="s">
+        <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>13</v>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>11</v>
+      <c r="F5" s="13" t="s">
+        <v>28</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1262,22 +3663,26 @@
     </row>
     <row r="6" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>9</v>
+      <c r="C6" s="28" t="s">
+        <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>14</v>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>11</v>
+      <c r="E6" s="17" t="s">
+        <v>10</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="F6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1292,22 +3697,22 @@
     </row>
     <row r="7" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>9</v>
+      <c r="C7" s="29"/>
+      <c r="D7" s="19" t="s">
+        <v>14</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>15</v>
+      <c r="E7" s="17" t="s">
+        <v>10</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>11</v>
+      <c r="F7" s="31"/>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1322,22 +3727,22 @@
     </row>
     <row r="8" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>9</v>
+      <c r="C8" s="26"/>
+      <c r="D8" s="19" t="s">
+        <v>15</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>16</v>
+      <c r="E8" s="17" t="s">
+        <v>10</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>11</v>
+      <c r="F8" s="32"/>
+      <c r="G8" s="13" t="s">
+        <v>33</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1350,24 +3755,28 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>9</v>
+      <c r="C9" s="28" t="s">
+        <v>22</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>17</v>
+      <c r="D9" s="19" t="s">
+        <v>16</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>11</v>
+      <c r="E9" s="17" t="s">
+        <v>10</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1380,24 +3789,26 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>9</v>
+      <c r="C10" s="26"/>
+      <c r="D10" s="19" t="s">
+        <v>17</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>18</v>
+      <c r="E10" s="17" t="s">
+        <v>10</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>11</v>
+      <c r="F10" s="13" t="s">
+        <v>36</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1410,24 +3821,28 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>10</v>
+      <c r="E11" s="17" t="s">
+        <v>25</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>11</v>
+      <c r="F11" s="13" t="s">
+        <v>38</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="G11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1442,22 +3857,24 @@
     </row>
     <row r="12" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>9</v>
+      <c r="C12" s="26"/>
+      <c r="D12" s="19" t="s">
+        <v>18</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>19</v>
+      <c r="E12" s="17" t="s">
+        <v>25</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>11</v>
+      <c r="F12" s="13" t="s">
+        <v>40</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="G12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1472,22 +3889,26 @@
     </row>
     <row r="13" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>10</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>9</v>
+      <c r="C13" s="21" t="s">
+        <v>24</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>20</v>
+      <c r="D13" s="22" t="s">
+        <v>19</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>11</v>
+      <c r="E13" s="21" t="s">
+        <v>10</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="F13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -27543,8 +29964,13 @@
       <c r="AA911" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>

--- a/테스트케이스_예시.xlsx
+++ b/테스트케이스_예시.xlsx
@@ -43,72 +43,6 @@
   </si>
   <si>
     <t>비고</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>케이스</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예시</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>커스터마이징</t>
@@ -2800,6 +2734,93 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>케이스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예시</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - https://firstproject-eb20a.web.app/</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3233,10 +3254,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3475,7 +3496,9 @@
   </sheetPr>
   <dimension ref="A1:AA911"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3522,7 +3545,7 @@
     <row r="2" spans="1:27" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="23" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3600,20 +3623,20 @@
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>20</v>
+      <c r="C4" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
@@ -3634,18 +3657,18 @@
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
@@ -3667,19 +3690,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
@@ -3702,14 +3725,14 @@
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
@@ -3730,16 +3753,16 @@
       <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
@@ -3761,19 +3784,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
@@ -3794,18 +3817,18 @@
       <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="14"/>
@@ -3827,19 +3850,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="14"/>
@@ -3860,18 +3883,18 @@
       <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
@@ -3893,19 +3916,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="16"/>
